--- a/biology/Botanique/Murraya_paniculata/Murraya_paniculata.xlsx
+++ b/biology/Botanique/Murraya_paniculata/Murraya_paniculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le buis de Chine ou bois jasmin (Murraya paniculata) est une espèce d'arbuste sempervirent de sous-bois originaire du Sud-Est asiatique et commun dans de nombreuses régions tropicales. Il est aussi appelé "bois-jasmin", "oranger jasmin", ou "bois de satin".
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte une couronne compacte et large et peut mesurer jusqu'à 6 mètres de haut.
 Les petites feuilles composées (3 à 9 folioles ovoïdes) sont alternes, vert brillant et persistantes.
@@ -544,7 +558,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Haie.
 Bonsaï.
@@ -576,7 +592,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Croissance assez rapide sur les jeunes plants puis plus lente par la suite. Supporte bien la taille mais les boutons floraux se forment plusieurs mois à l’avance, en bout de branches.
 Il s’adapte bien à la culture en intérieur sous climat tempéré, avec maxi à 18 °C l’hiver, mini à 0 °C (courte durée) et une bonne hygrométrie.
